--- a/jour12.xlsx
+++ b/jour12.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Points dom</t>
   </si>
@@ -40,121 +40,124 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Terrier', 'Gouiri']</t>
-  </si>
-  <si>
-    <t>['Le_Douaron', 'Elis']</t>
-  </si>
-  <si>
-    <t>['Mothiba', 'Mothiba']</t>
-  </si>
-  <si>
-    <t>['Coco', 'Blas', 'Mollet']</t>
-  </si>
-  <si>
-    <t>['Ben_Seguir', 'Jakobs']</t>
+    <t>['Ramos', 'Sanches']</t>
+  </si>
+  <si>
+    <t>['Payet']</t>
+  </si>
+  <si>
+    <t>['Ganiou', 'Medina']</t>
   </si>
   <si>
     <t>[]</t>
   </si>
   <si>
-    <t>['Lipinski', 'Autret']</t>
-  </si>
-  <si>
-    <t>['Hamouma']</t>
-  </si>
-  <si>
-    <t>['Bayo', 'Wieteska']</t>
+    <t>['Tchato']</t>
+  </si>
+  <si>
+    <t>['Theate']</t>
+  </si>
+  <si>
+    <t>['Simon', 'Mollet']</t>
+  </si>
+  <si>
+    <t>['Serhuis', 'Zeneli', 'Cajuste']</t>
+  </si>
+  <si>
+    <t>['Sibide', 'Ben_Seguir', 'Henrique', 'Serrano']</t>
+  </si>
+  <si>
+    <t>['Sima', 'Mendy']</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
   </si>
   <si>
     <t>Rennes</t>
   </si>
   <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
     <t>Brest</t>
   </si>
   <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
     <t>Nice</t>
   </si>
   <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>['Brahimi', 'Diop']</t>
-  </si>
-  <si>
-    <t>['Conte', 'Porozo', 'Palaversa']</t>
-  </si>
-  <si>
-    <t>['Tchato', 'Savanier', 'Sakho']</t>
-  </si>
-  <si>
-    <t>['Clauss']</t>
-  </si>
-  <si>
-    <t>['Alioui', 'Bamba', 'Doumbia']</t>
-  </si>
-  <si>
-    <t>['David']</t>
-  </si>
-  <si>
-    <t>['ChaÃ¯bi', 'Dallinga']</t>
-  </si>
-  <si>
-    <t>['Zeneli', 'Cajuste']</t>
-  </si>
-  <si>
-    <t>['Soler', 'Kipembe']</t>
-  </si>
-  <si>
-    <t>['Sanchez', 'Tagliafico']</t>
+    <t>['Le_Fee', 'Silva', 'Le_Fee', 'Talbi']</t>
+  </si>
+  <si>
+    <t>['Chavalerin', 'Chavalerin', 'Palaversa']</t>
+  </si>
+  <si>
+    <t>['Burlet']</t>
+  </si>
+  <si>
+    <t>['Spierings', 'Onaiwu', 'Desler']</t>
+  </si>
+  <si>
+    <t>['Autret']</t>
+  </si>
+  <si>
+    <t>['Aouar', 'Bercola', 'Caqueret']</t>
+  </si>
+  <si>
+    <t>['Djiku', 'Le_Marchand', 'H.Diallo']</t>
+  </si>
+  <si>
+    <t>['Cisse', 'Gastien', 'Versini', 'Gastien']</t>
+  </si>
+  <si>
+    <t>['Tavares']</t>
+  </si>
+  <si>
+    <t>['Dante']</t>
   </si>
 </sst>
 </file>
@@ -555,22 +558,22 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2">
         <v>2</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -578,25 +581,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I3">
         <v>3</v>
@@ -613,22 +616,22 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -636,28 +639,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -665,28 +668,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -694,28 +697,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -729,22 +732,22 @@
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E8">
         <v>2</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -752,28 +755,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -781,28 +784,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -810,28 +813,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/jour12.xlsx
+++ b/jour12.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
   <si>
     <t>Points dom</t>
   </si>
@@ -40,124 +40,115 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Ramos', 'Sanches']</t>
-  </si>
-  <si>
-    <t>['Payet']</t>
-  </si>
-  <si>
-    <t>['Ganiou', 'Medina']</t>
+    <t>['Mothiba', 'Perrin']</t>
+  </si>
+  <si>
+    <t>['Cajuste', 'Flips']</t>
   </si>
   <si>
     <t>[]</t>
   </si>
   <si>
-    <t>['Tchato']</t>
-  </si>
-  <si>
-    <t>['Theate']</t>
-  </si>
-  <si>
-    <t>['Simon', 'Mollet']</t>
-  </si>
-  <si>
-    <t>['Serhuis', 'Zeneli', 'Cajuste']</t>
-  </si>
-  <si>
-    <t>['Sibide', 'Ben_Seguir', 'Henrique', 'Serrano']</t>
-  </si>
-  <si>
-    <t>['Sima', 'Mendy']</t>
+    <t>['Beka', 'Brahimi']</t>
+  </si>
+  <si>
+    <t>['Blas', 'Guessand', 'Simon', 'Castelletto']</t>
+  </si>
+  <si>
+    <t>['Mendy', 'Guillaume']</t>
+  </si>
+  <si>
+    <t>['Lebas', 'Hamouma']</t>
+  </si>
+  <si>
+    <t>['Gomes', 'Ribeiro']</t>
+  </si>
+  <si>
+    <t>['Sibide', 'Embolo', 'Jakobs']</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Brest</t>
   </si>
   <si>
     <t>PSG</t>
   </si>
   <si>
-    <t>OM</t>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
   </si>
   <si>
     <t>Lens</t>
   </si>
   <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>['Le_Fee', 'Silva', 'Le_Fee', 'Talbi']</t>
-  </si>
-  <si>
-    <t>['Chavalerin', 'Chavalerin', 'Palaversa']</t>
-  </si>
-  <si>
-    <t>['Burlet']</t>
-  </si>
-  <si>
-    <t>['Spierings', 'Onaiwu', 'Desler']</t>
-  </si>
-  <si>
-    <t>['Autret']</t>
-  </si>
-  <si>
-    <t>['Aouar', 'Bercola', 'Caqueret']</t>
-  </si>
-  <si>
-    <t>['Djiku', 'Le_Marchand', 'H.Diallo']</t>
-  </si>
-  <si>
-    <t>['Cisse', 'Gastien', 'Versini', 'Gastien']</t>
-  </si>
-  <si>
-    <t>['Tavares']</t>
-  </si>
-  <si>
-    <t>['Dante']</t>
+    <t>['Le_Goff', 'Ponceau', 'Matsima', 'Silva']</t>
+  </si>
+  <si>
+    <t>['Tagliafico']</t>
+  </si>
+  <si>
+    <t>['Ripart', 'Conte']</t>
+  </si>
+  <si>
+    <t>['Danois', 'Bain']</t>
+  </si>
+  <si>
+    <t>['Del_Castillo', 'Chardonnet']</t>
+  </si>
+  <si>
+    <t>['Sanches', 'Mbappe']</t>
+  </si>
+  <si>
+    <t>['Dejaegere']</t>
+  </si>
+  <si>
+    <t>['Varane', 'Le_Cardinal', 'Ganiou']</t>
   </si>
 </sst>
 </file>
@@ -558,7 +549,7 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -567,10 +558,10 @@
         <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I2">
         <v>4</v>
@@ -581,28 +572,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -610,25 +601,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -639,28 +630,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -668,28 +659,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -697,28 +688,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I7">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -726,28 +717,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -755,28 +746,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H9" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="I9">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -784,25 +775,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -813,28 +804,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/jour12.xlsx
+++ b/jour12.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Points dom</t>
   </si>
@@ -40,115 +40,124 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Mothiba', 'Perrin']</t>
-  </si>
-  <si>
-    <t>['Cajuste', 'Flips']</t>
+    <t>['Balogin', 'Flips', 'Cajuste']</t>
+  </si>
+  <si>
+    <t>['Mendes', 'Kipembe', 'Soler']</t>
+  </si>
+  <si>
+    <t>['Ounahi', 'Rongier', 'Kabore']</t>
+  </si>
+  <si>
+    <t>['Maouassa', 'Savanier', 'Sakho']</t>
+  </si>
+  <si>
+    <t>['Ratao', 'Onaiwu']</t>
+  </si>
+  <si>
+    <t>['Caqueret', 'Tolisso']</t>
+  </si>
+  <si>
+    <t>['Roure', 'Michelin']</t>
+  </si>
+  <si>
+    <t>['Medina']</t>
+  </si>
+  <si>
+    <t>['Chardonnet']</t>
+  </si>
+  <si>
+    <t>['Cabella']</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>['Matsima']</t>
+  </si>
+  <si>
+    <t>['Danois', 'Bain']</t>
+  </si>
+  <si>
+    <t>['Palaversa', 'Salmier']</t>
   </si>
   <si>
     <t>[]</t>
   </si>
   <si>
-    <t>['Beka', 'Brahimi']</t>
-  </si>
-  <si>
-    <t>['Blas', 'Guessand', 'Simon', 'Castelletto']</t>
-  </si>
-  <si>
-    <t>['Mendy', 'Guillaume']</t>
-  </si>
-  <si>
-    <t>['Lebas', 'Hamouma']</t>
-  </si>
-  <si>
-    <t>['Gomes', 'Ribeiro']</t>
-  </si>
-  <si>
-    <t>['Sibide', 'Embolo', 'Jakobs']</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>['Le_Goff', 'Ponceau', 'Matsima', 'Silva']</t>
-  </si>
-  <si>
-    <t>['Tagliafico']</t>
-  </si>
-  <si>
-    <t>['Ripart', 'Conte']</t>
-  </si>
-  <si>
-    <t>['Danois', 'Bain']</t>
-  </si>
-  <si>
-    <t>['Del_Castillo', 'Chardonnet']</t>
-  </si>
-  <si>
-    <t>['Sanches', 'Mbappe']</t>
-  </si>
-  <si>
-    <t>['Dejaegere']</t>
-  </si>
-  <si>
-    <t>['Varane', 'Le_Cardinal', 'Ganiou']</t>
+    <t>['Theate', 'Santamaria', 'Theate']</t>
+  </si>
+  <si>
+    <t>['Corduan', 'Doumbia']</t>
+  </si>
+  <si>
+    <t>['Ben_Seguir', 'Embolo']</t>
+  </si>
+  <si>
+    <t>['Massolin']</t>
+  </si>
+  <si>
+    <t>['Bellegarde']</t>
+  </si>
+  <si>
+    <t>['Dante', 'Pepe', 'Laborde']</t>
   </si>
 </sst>
 </file>
@@ -540,152 +549,152 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -694,7 +703,7 @@
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -703,10 +712,10 @@
         <v>2</v>
       </c>
       <c r="G7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I7">
         <v>2</v>
@@ -714,28 +723,28 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F8">
         <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I8">
         <v>2</v>
@@ -743,31 +752,31 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -775,25 +784,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H10" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -804,25 +813,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <v>3</v>
       </c>
       <c r="G11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I11">
         <v>3</v>

--- a/jour12.xlsx
+++ b/jour12.xlsx
@@ -40,124 +40,124 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Balogin', 'Flips', 'Cajuste']</t>
-  </si>
-  <si>
-    <t>['Mendes', 'Kipembe', 'Soler']</t>
-  </si>
-  <si>
-    <t>['Ounahi', 'Rongier', 'Kabore']</t>
-  </si>
-  <si>
-    <t>['Maouassa', 'Savanier', 'Sakho']</t>
-  </si>
-  <si>
-    <t>['Ratao', 'Onaiwu']</t>
-  </si>
-  <si>
-    <t>['Caqueret', 'Tolisso']</t>
-  </si>
-  <si>
-    <t>['Roure', 'Michelin']</t>
-  </si>
-  <si>
-    <t>['Medina']</t>
-  </si>
-  <si>
-    <t>['Chardonnet']</t>
-  </si>
-  <si>
-    <t>['Cabella']</t>
+    <t>['Moalida', 'Lopy', 'Moalida', 'Moalida', 'Cajuste']</t>
+  </si>
+  <si>
+    <t>['Mavididi', 'Nordin', 'Sakho']</t>
+  </si>
+  <si>
+    <t>['Lopez', 'Kabore', 'Rongier']</t>
+  </si>
+  <si>
+    <t>['Girotto', 'Simon']</t>
+  </si>
+  <si>
+    <t>['Verrati', 'Ruiz']</t>
+  </si>
+  <si>
+    <t>['Sanson', 'Sanson']</t>
+  </si>
+  <si>
+    <t>['Andre', 'Yoro']</t>
+  </si>
+  <si>
+    <t>['Pepe', 'Bryan']</t>
+  </si>
+  <si>
+    <t>['Bain']</t>
+  </si>
+  <si>
+    <t>['Lega']</t>
   </si>
   <si>
     <t>Reims</t>
   </si>
   <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
     <t>PSG</t>
   </si>
   <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Brest</t>
   </si>
   <si>
     <t>Toulouse</t>
   </si>
   <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
     <t>Lorient</t>
   </si>
   <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
     <t>Troyes</t>
   </si>
   <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>['Matsima']</t>
-  </si>
-  <si>
-    <t>['Danois', 'Bain']</t>
-  </si>
-  <si>
-    <t>['Palaversa', 'Salmier']</t>
+    <t>["N'Diaye", 'Michelin', 'Lebas']</t>
+  </si>
+  <si>
+    <t>['Rajot']</t>
+  </si>
+  <si>
+    <t>['Embolo', 'Maripan']</t>
+  </si>
+  <si>
+    <t>['Fortes']</t>
+  </si>
+  <si>
+    <t>['Terrier']</t>
   </si>
   <si>
     <t>[]</t>
   </si>
   <si>
-    <t>['Theate', 'Santamaria', 'Theate']</t>
-  </si>
-  <si>
-    <t>['Corduan', 'Doumbia']</t>
-  </si>
-  <si>
-    <t>['Ben_Seguir', 'Embolo']</t>
-  </si>
-  <si>
-    <t>['Massolin']</t>
-  </si>
-  <si>
-    <t>['Bellegarde']</t>
-  </si>
-  <si>
-    <t>['Dante', 'Pepe', 'Laborde']</t>
+    <t>['Lemarechal', 'Chardonnet']</t>
+  </si>
+  <si>
+    <t>['Spierings', 'Onaiwu']</t>
+  </si>
+  <si>
+    <t>['Pelon', 'Laporte', 'Ponceau']</t>
+  </si>
+  <si>
+    <t>['Conte', 'Conte', 'Ugbo']</t>
   </si>
 </sst>
 </file>
@@ -549,7 +549,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -561,10 +561,10 @@
         <v>18</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G2" t="s">
         <v>28</v>
@@ -573,12 +573,12 @@
         <v>38</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -593,7 +593,7 @@
         <v>3</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" t="s">
         <v>29</v>
@@ -602,12 +602,12 @@
         <v>39</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -631,7 +631,7 @@
         <v>40</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -648,10 +648,10 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="s">
         <v>31</v>
@@ -665,10 +665,10 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -680,7 +680,7 @@
         <v>2</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G6" t="s">
         <v>32</v>
@@ -689,15 +689,15 @@
         <v>42</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -709,7 +709,7 @@
         <v>2</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G7" t="s">
         <v>33</v>
@@ -718,15 +718,15 @@
         <v>43</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -747,12 +747,12 @@
         <v>44</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -764,10 +764,10 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9" t="s">
         <v>35</v>
@@ -781,10 +781,10 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
@@ -796,7 +796,7 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G10" t="s">
         <v>36</v>
@@ -805,15 +805,15 @@
         <v>46</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>

--- a/jour12.xlsx
+++ b/jour12.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>Points dom</t>
   </si>
@@ -40,124 +40,121 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Balogin', 'Flips', 'Cajuste']</t>
-  </si>
-  <si>
-    <t>['Mendes', 'Kipembe', 'Soler']</t>
-  </si>
-  <si>
-    <t>['Ounahi', 'Rongier', 'Kabore']</t>
-  </si>
-  <si>
-    <t>['Maouassa', 'Savanier', 'Sakho']</t>
-  </si>
-  <si>
-    <t>['Ratao', 'Onaiwu']</t>
-  </si>
-  <si>
-    <t>['Caqueret', 'Tolisso']</t>
-  </si>
-  <si>
-    <t>['Roure', 'Michelin']</t>
-  </si>
-  <si>
-    <t>['Medina']</t>
-  </si>
-  <si>
-    <t>['Chardonnet']</t>
-  </si>
-  <si>
-    <t>['Cabella']</t>
+    <t>['Flips', 'Moalida', 'Zeneli', 'Lopy']</t>
+  </si>
+  <si>
+    <t>['Attal', 'Attal', 'Moffi', 'Attal']</t>
+  </si>
+  <si>
+    <t>['Sakho', 'Tchato', 'Germain']</t>
+  </si>
+  <si>
+    <t>['Sanches', 'Mbappe']</t>
+  </si>
+  <si>
+    <t>['Salmier', 'Chavalerin', 'Lopez']</t>
+  </si>
+  <si>
+    <t>['Roure', 'Michelin', 'Alphonse']</t>
+  </si>
+  <si>
+    <t>['Wieteska', 'Maurer']</t>
+  </si>
+  <si>
+    <t>['Autret']</t>
+  </si>
+  <si>
+    <t>[]</t>
   </si>
   <si>
     <t>Reims</t>
   </si>
   <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
     <t>PSG</t>
   </si>
   <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
     <t>OM</t>
   </si>
   <si>
-    <t>Montpellier</t>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Rennes</t>
   </si>
   <si>
     <t>Toulouse</t>
   </si>
   <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Brest</t>
+    <t>Lorient</t>
   </si>
   <si>
     <t>Lille</t>
   </si>
   <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>['Matsima']</t>
-  </si>
-  <si>
-    <t>['Danois', 'Bain']</t>
-  </si>
-  <si>
-    <t>['Palaversa', 'Salmier']</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>['Theate', 'Santamaria', 'Theate']</t>
-  </si>
-  <si>
-    <t>['Corduan', 'Doumbia']</t>
-  </si>
-  <si>
-    <t>['Ben_Seguir', 'Embolo']</t>
-  </si>
-  <si>
-    <t>['Massolin']</t>
-  </si>
-  <si>
-    <t>['Bellegarde']</t>
-  </si>
-  <si>
-    <t>['Dante', 'Pepe', 'Laborde']</t>
+    <t>['Lemarechal', 'Tavares', 'Magnetti']</t>
+  </si>
+  <si>
+    <t>['Pallois', 'Coco', 'Mollet']</t>
+  </si>
+  <si>
+    <t>['Le_Marchand', 'Bellegarde']</t>
+  </si>
+  <si>
+    <t>['Aouar']</t>
+  </si>
+  <si>
+    <t>['Le_Cardinal', 'Boura', 'Ganiou']</t>
+  </si>
+  <si>
+    <t>['Mendy', 'Bamba', 'Mendy']</t>
+  </si>
+  <si>
+    <t>['Santamaria', 'Kalimuendo']</t>
+  </si>
+  <si>
+    <t>['Dallinga', 'Ratao']</t>
+  </si>
+  <si>
+    <t>['Le_Goff']</t>
+  </si>
+  <si>
+    <t>['Martin', 'Burlet']</t>
   </si>
 </sst>
 </file>
@@ -549,7 +546,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -558,27 +555,27 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -587,27 +584,27 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -616,7 +613,7 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -625,18 +622,18 @@
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -645,19 +642,19 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -665,74 +662,74 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>3</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -741,97 +738,97 @@
         <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I11">
         <v>3</v>

--- a/jour12.xlsx
+++ b/jour12.xlsx
@@ -40,40 +40,61 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Moalida', 'Lopy', 'Moalida', 'Moalida', 'Cajuste']</t>
-  </si>
-  <si>
-    <t>['Mavididi', 'Nordin', 'Sakho']</t>
-  </si>
-  <si>
-    <t>['Lopez', 'Kabore', 'Rongier']</t>
-  </si>
-  <si>
-    <t>['Girotto', 'Simon']</t>
-  </si>
-  <si>
-    <t>['Verrati', 'Ruiz']</t>
-  </si>
-  <si>
-    <t>['Sanson', 'Sanson']</t>
-  </si>
-  <si>
-    <t>['Andre', 'Yoro']</t>
-  </si>
-  <si>
-    <t>['Pepe', 'Bryan']</t>
-  </si>
-  <si>
-    <t>['Bain']</t>
-  </si>
-  <si>
-    <t>['Lega']</t>
+    <t>['Brassier', 'Duverne']</t>
+  </si>
+  <si>
+    <t>['Gudmundsson', 'Gomes', 'Gomes']</t>
+  </si>
+  <si>
+    <t>['Sanchez', 'Sanchez']</t>
+  </si>
+  <si>
+    <t>['Dembele', 'Danois']</t>
+  </si>
+  <si>
+    <t>['Sibide', 'Jakobs']</t>
+  </si>
+  <si>
+    <t>['Sakho']</t>
+  </si>
+  <si>
+    <t>['Ratao', 'Healey']</t>
+  </si>
+  <si>
+    <t>['Ito', 'Serhuis']</t>
+  </si>
+  <si>
+    <t>['Borges']</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
   </si>
   <si>
     <t>Reims</t>
   </si>
   <si>
-    <t>Montpellier</t>
+    <t>Clermont</t>
   </si>
   <si>
     <t>OM</t>
@@ -82,82 +103,61 @@
     <t>Nantes</t>
   </si>
   <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
     <t>PSG</t>
   </si>
   <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
     <t>Strasbourg</t>
   </si>
   <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>OL</t>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Lens</t>
   </si>
   <si>
     <t>Ajaccio</t>
   </si>
   <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>["N'Diaye", 'Michelin', 'Lebas']</t>
-  </si>
-  <si>
-    <t>['Rajot']</t>
-  </si>
-  <si>
-    <t>['Embolo', 'Maripan']</t>
-  </si>
-  <si>
-    <t>['Fortes']</t>
-  </si>
-  <si>
-    <t>['Terrier']</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>['Lemarechal', 'Chardonnet']</t>
-  </si>
-  <si>
-    <t>['Spierings', 'Onaiwu']</t>
-  </si>
-  <si>
-    <t>['Pelon', 'Laporte', 'Ponceau']</t>
-  </si>
-  <si>
-    <t>['Conte', 'Conte', 'Ugbo']</t>
+    <t>['Blas']</t>
+  </si>
+  <si>
+    <t>['Corduan', 'Capelle', 'Bamba']</t>
+  </si>
+  <si>
+    <t>['Moffi', 'Beka']</t>
+  </si>
+  <si>
+    <t>['Messi', 'Mbappe']</t>
+  </si>
+  <si>
+    <t>['Odobert', 'Salmier']</t>
+  </si>
+  <si>
+    <t>['Le_Goff']</t>
+  </si>
+  <si>
+    <t>['Le_Marchand', 'Gameiro', 'Djiku', 'Djiku']</t>
+  </si>
+  <si>
+    <t>['Rodon', 'Gouiri', 'Wooh']</t>
+  </si>
+  <si>
+    <t>['Le_Cardinal', 'Pereira', 'Boura']</t>
+  </si>
+  <si>
+    <t>['Hamouma', 'Silla']</t>
   </si>
 </sst>
 </file>
@@ -549,7 +549,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -561,10 +561,10 @@
         <v>18</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G2" t="s">
         <v>28</v>
@@ -578,10 +578,10 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -593,7 +593,7 @@
         <v>3</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G3" t="s">
         <v>29</v>
@@ -602,15 +602,15 @@
         <v>39</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -619,7 +619,7 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -631,15 +631,15 @@
         <v>40</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -651,7 +651,7 @@
         <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5" t="s">
         <v>31</v>
@@ -660,15 +660,15 @@
         <v>41</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -680,7 +680,7 @@
         <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" t="s">
         <v>32</v>
@@ -689,15 +689,15 @@
         <v>42</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -706,10 +706,10 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="s">
         <v>33</v>
@@ -718,15 +718,15 @@
         <v>43</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -738,7 +738,7 @@
         <v>2</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G8" t="s">
         <v>34</v>
@@ -747,15 +747,15 @@
         <v>44</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
@@ -767,7 +767,7 @@
         <v>2</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G9" t="s">
         <v>35</v>
@@ -776,12 +776,12 @@
         <v>45</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -810,7 +810,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -822,10 +822,10 @@
         <v>27</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G11" t="s">
         <v>37</v>

--- a/jour12.xlsx
+++ b/jour12.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>Points dom</t>
   </si>
@@ -40,124 +40,121 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Rajot', 'Maurer', 'Borges']</t>
-  </si>
-  <si>
-    <t>['Djiku', 'H.Diallo', 'Sanson']</t>
-  </si>
-  <si>
-    <t>['Abdelhamid', 'Lopy']</t>
-  </si>
-  <si>
-    <t>['Laporte', 'Talbi']</t>
-  </si>
-  <si>
-    <t>['Diallo', 'Roure']</t>
-  </si>
-  <si>
-    <t>['Martin', 'Ribeiro']</t>
-  </si>
-  <si>
-    <t>['Cherki', 'Gusto', 'Cherki']</t>
-  </si>
-  <si>
-    <t>['Del_Castillo', 'Mounie', 'Mounie']</t>
-  </si>
-  <si>
-    <t>['Gigot', 'Harit']</t>
-  </si>
-  <si>
-    <t>['Capelle']</t>
+    <t>['Bamba', 'Doumbia', 'Bamba']</t>
+  </si>
+  <si>
+    <t>['Yoro', 'Gomes']</t>
+  </si>
+  <si>
+    <t>['Conte', 'Porozo']</t>
+  </si>
+  <si>
+    <t>['Delort', 'Ganago']</t>
+  </si>
+  <si>
+    <t>['Lienard']</t>
+  </si>
+  <si>
+    <t>['Nordin', 'Maouassa']</t>
+  </si>
+  <si>
+    <t>['Ruiz']</t>
+  </si>
+  <si>
+    <t>['Traore']</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>OM</t>
   </si>
   <si>
     <t>Clermont</t>
   </si>
   <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>['Khazri']</t>
-  </si>
-  <si>
-    <t>['Gouiri', 'Wooh']</t>
-  </si>
-  <si>
-    <t>['Neymar']</t>
-  </si>
-  <si>
-    <t>['Simon']</t>
-  </si>
-  <si>
-    <t>['Sylla']</t>
-  </si>
-  <si>
-    <t>['Laborde']</t>
-  </si>
-  <si>
-    <t>['Jakobs', 'Aguilar', 'Ben_Seguir']</t>
-  </si>
-  <si>
-    <t>['Balde', 'Conte', 'Palaversa']</t>
-  </si>
-  <si>
-    <t>['Pellenard', 'Dembele', 'Pellenard']</t>
-  </si>
-  <si>
-    <t>['Healey', 'Aboukhlal']</t>
+    <t>['Le_Douaron', 'Magnetti']</t>
+  </si>
+  <si>
+    <t>['Dejaegere']</t>
+  </si>
+  <si>
+    <t>['Gusto', 'Aouar']</t>
+  </si>
+  <si>
+    <t>['Laporte', 'Pelon']</t>
+  </si>
+  <si>
+    <t>['Pele']</t>
+  </si>
+  <si>
+    <t>['Diallo', 'Roure', 'Michelin']</t>
+  </si>
+  <si>
+    <t>['Moalida', 'Cajuste']</t>
+  </si>
+  <si>
+    <t>['Pellenard', 'Jeanvier']</t>
+  </si>
+  <si>
+    <t>['Lopez']</t>
+  </si>
+  <si>
+    <t>['Boyer', 'Bayo']</t>
   </si>
 </sst>
 </file>
@@ -549,7 +546,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -558,19 +555,19 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2">
         <v>3</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -578,7 +575,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -587,19 +584,19 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -607,147 +604,147 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -755,33 +752,33 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -790,19 +787,19 @@
         <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I10">
         <v>3</v>
@@ -816,22 +813,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>2</v>
       </c>
       <c r="G11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I11">
         <v>3</v>

--- a/jour12.xlsx
+++ b/jour12.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+  <si>
+    <t>Score dom</t>
+  </si>
   <si>
     <t>Points dom</t>
   </si>
@@ -40,121 +43,124 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Bamba', 'Doumbia', 'Bamba']</t>
-  </si>
-  <si>
-    <t>['Yoro', 'Gomes']</t>
-  </si>
-  <si>
-    <t>['Conte', 'Porozo']</t>
-  </si>
-  <si>
-    <t>['Delort', 'Ganago']</t>
-  </si>
-  <si>
-    <t>['Lienard']</t>
-  </si>
-  <si>
-    <t>['Nordin', 'Maouassa']</t>
-  </si>
-  <si>
-    <t>['Ruiz']</t>
-  </si>
-  <si>
-    <t>['Traore']</t>
+    <t>Score exte</t>
+  </si>
+  <si>
+    <t>['Elis', 'Del_Castillo', 'Brassier', 'Magnetti']</t>
+  </si>
+  <si>
+    <t>['Traore', 'Terrier', 'Traore']</t>
+  </si>
+  <si>
+    <t>['Doumbia', 'Masson', 'Masson']</t>
+  </si>
+  <si>
+    <t>['Tolisso', 'Cherki', 'Tolisso']</t>
+  </si>
+  <si>
+    <t>['Ugbo', 'Odobert']</t>
+  </si>
+  <si>
+    <t>['Mollet', 'Pallois']</t>
+  </si>
+  <si>
+    <t>['Messi', 'Mbappe']</t>
+  </si>
+  <si>
+    <t>['Ben_Seguir', 'Henrique']</t>
+  </si>
+  <si>
+    <t>['Laborde']</t>
+  </si>
+  <si>
+    <t>['Serhuis']</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>['Mothiba', 'Mothiba']</t>
+  </si>
+  <si>
+    <t>['Laporte']</t>
+  </si>
+  <si>
+    <t>['Harit', 'Rongier', 'Lopez']</t>
+  </si>
+  <si>
+    <t>['Bayo', 'Bayo', 'Rajot']</t>
   </si>
   <si>
     <t>[]</t>
   </si>
   <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>['Le_Douaron', 'Magnetti']</t>
-  </si>
-  <si>
-    <t>['Dejaegere']</t>
-  </si>
-  <si>
-    <t>['Gusto', 'Aouar']</t>
-  </si>
-  <si>
-    <t>['Laporte', 'Pelon']</t>
-  </si>
-  <si>
-    <t>['Pele']</t>
-  </si>
-  <si>
-    <t>['Diallo', 'Roure', 'Michelin']</t>
-  </si>
-  <si>
-    <t>['Moalida', 'Cajuste']</t>
-  </si>
-  <si>
-    <t>['Pellenard', 'Jeanvier']</t>
-  </si>
-  <si>
-    <t>['Lopez']</t>
-  </si>
-  <si>
-    <t>['Boyer', 'Bayo']</t>
+    <t>['Sakho', 'Nordin']</t>
+  </si>
+  <si>
+    <t>['Silla', 'Vidal']</t>
+  </si>
+  <si>
+    <t>['Varane']</t>
+  </si>
+  <si>
+    <t>['Da_Costa', 'Pellenard']</t>
   </si>
 </sst>
 </file>
@@ -512,13 +518,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -543,295 +549,361 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1">
         <v>7</v>
       </c>
-      <c r="B2">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B3">
+        <v>18</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>16</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>22</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B7">
         <v>17</v>
       </c>
-      <c r="E2">
-        <v>3</v>
-      </c>
-      <c r="F2">
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7">
         <v>2</v>
       </c>
-      <c r="G2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" t="s">
-        <v>41</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1">
-        <v>2</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>3</v>
-      </c>
-      <c r="G7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1">
-        <v>3</v>
-      </c>
       <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
       </c>
       <c r="F8">
         <v>2</v>
       </c>
-      <c r="G8" t="s">
-        <v>33</v>
+      <c r="G8">
+        <v>2</v>
       </c>
       <c r="H8" t="s">
-        <v>43</v>
-      </c>
-      <c r="I8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="I8" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
       </c>
       <c r="F9">
         <v>2</v>
       </c>
-      <c r="G9" t="s">
-        <v>34</v>
+      <c r="G9">
+        <v>0</v>
       </c>
       <c r="H9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" t="s">
         <v>44</v>
       </c>
-      <c r="I9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>17</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" t="s">
+        <v>47</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>12</v>
+      </c>
+      <c r="C11">
         <v>0</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10" t="s">
-        <v>45</v>
-      </c>
-      <c r="I10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1">
-        <v>8</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
       <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="E11" t="s">
+        <v>29</v>
       </c>
       <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
         <v>2</v>
       </c>
-      <c r="G11" t="s">
-        <v>36</v>
-      </c>
       <c r="H11" t="s">
-        <v>46</v>
-      </c>
-      <c r="I11">
-        <v>3</v>
+        <v>39</v>
+      </c>
+      <c r="I11" t="s">
+        <v>48</v>
+      </c>
+      <c r="J11">
+        <v>3</v>
+      </c>
+      <c r="K11">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/jour12.xlsx
+++ b/jour12.xlsx
@@ -46,121 +46,121 @@
     <t>Score exte</t>
   </si>
   <si>
-    <t>['Elis', 'Del_Castillo', 'Brassier', 'Magnetti']</t>
-  </si>
-  <si>
-    <t>['Traore', 'Terrier', 'Traore']</t>
-  </si>
-  <si>
-    <t>['Doumbia', 'Masson', 'Masson']</t>
-  </si>
-  <si>
-    <t>['Tolisso', 'Cherki', 'Tolisso']</t>
-  </si>
-  <si>
-    <t>['Ugbo', 'Odobert']</t>
-  </si>
-  <si>
-    <t>['Mollet', 'Pallois']</t>
-  </si>
-  <si>
-    <t>['Messi', 'Mbappe']</t>
-  </si>
-  <si>
-    <t>['Ben_Seguir', 'Henrique']</t>
-  </si>
-  <si>
-    <t>['Laborde']</t>
-  </si>
-  <si>
-    <t>['Serhuis']</t>
+    <t>['Silla', 'Michelin', "N'Diaye"]</t>
+  </si>
+  <si>
+    <t>['Pellenard', 'Da_Costa', 'Dugimont']</t>
+  </si>
+  <si>
+    <t>['Gomes', 'Cabella']</t>
+  </si>
+  <si>
+    <t>['Dallinga', 'ChaÃ¯bi']</t>
+  </si>
+  <si>
+    <t>['Chavalerin', 'Balde']</t>
+  </si>
+  <si>
+    <t>['Ramos']</t>
+  </si>
+  <si>
+    <t>['Mounie']</t>
+  </si>
+  <si>
+    <t>['Valencia']</t>
+  </si>
+  <si>
+    <t>['Lega']</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>PSG</t>
   </si>
   <si>
     <t>Brest</t>
   </si>
   <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
     <t>Rennes</t>
   </si>
   <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
     <t>Strasbourg</t>
   </si>
   <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>['Mothiba', 'Mothiba']</t>
-  </si>
-  <si>
-    <t>['Laporte']</t>
-  </si>
-  <si>
-    <t>['Harit', 'Rongier', 'Lopez']</t>
-  </si>
-  <si>
-    <t>['Bayo', 'Bayo', 'Rajot']</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>['Sakho', 'Nordin']</t>
-  </si>
-  <si>
-    <t>['Silla', 'Vidal']</t>
-  </si>
-  <si>
-    <t>['Varane']</t>
-  </si>
-  <si>
-    <t>['Da_Costa', 'Pellenard']</t>
+    <t>['Coco', 'Coco']</t>
+  </si>
+  <si>
+    <t>['Mendy', 'Masson', 'Masson', 'Guillaume']</t>
+  </si>
+  <si>
+    <t>['Attal', 'Moffi', 'Bryan', 'Diop']</t>
+  </si>
+  <si>
+    <t>['Balogin', 'Flips']</t>
+  </si>
+  <si>
+    <t>['Borges', 'Maurer']</t>
+  </si>
+  <si>
+    <t>['Wahi']</t>
+  </si>
+  <si>
+    <t>['Le_Fee', 'Silva']</t>
+  </si>
+  <si>
+    <t>['Assignon', 'Rodon', 'Rodon', 'Kalimuendo']</t>
+  </si>
+  <si>
+    <t>['Perrin']</t>
   </si>
 </sst>
 </file>
@@ -558,10 +558,10 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -573,7 +573,7 @@
         <v>20</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -588,18 +588,18 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
@@ -611,7 +611,7 @@
         <v>3</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H3" t="s">
         <v>31</v>
@@ -620,21 +620,21 @@
         <v>41</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K3">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -643,10 +643,10 @@
         <v>22</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H4" t="s">
         <v>32</v>
@@ -655,18 +655,18 @@
         <v>42</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K4">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -678,10 +678,10 @@
         <v>23</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H5" t="s">
         <v>33</v>
@@ -693,18 +693,18 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
@@ -716,7 +716,7 @@
         <v>2</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H6" t="s">
         <v>34</v>
@@ -725,21 +725,21 @@
         <v>44</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
@@ -748,27 +748,27 @@
         <v>25</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H7" t="s">
         <v>35</v>
       </c>
       <c r="I7" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B8">
         <v>16</v>
@@ -783,33 +783,33 @@
         <v>26</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8" t="s">
         <v>36</v>
       </c>
       <c r="I8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J8">
         <v>1</v>
       </c>
       <c r="K8">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -818,33 +818,33 @@
         <v>27</v>
       </c>
       <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
         <v>2</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
       </c>
       <c r="H9" t="s">
         <v>37</v>
       </c>
       <c r="I9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K9">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B10">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
@@ -856,7 +856,7 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H10" t="s">
         <v>38</v>
@@ -865,18 +865,18 @@
         <v>47</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K10">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B11">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -888,10 +888,10 @@
         <v>29</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H11" t="s">
         <v>39</v>
@@ -903,7 +903,7 @@
         <v>3</v>
       </c>
       <c r="K11">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
